--- a/biology/Médecine/Maltodextrine/Maltodextrine.xlsx
+++ b/biology/Médecine/Maltodextrine/Maltodextrine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Une maltodextrine est le résultat de l'hydrolyse d'un amidon (blé, maïs, pois) ou d'une fécule (de pomme de terre). Elle est constituée de différents saccharides (D-glucose, maltose, maltotriose, oligosides et polyosides) directement issus de cette réaction, dans des proportions qui dépendent du degré d'hydrolyse.
@@ -514,7 +526,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les maltodextrines peuvent être utilisées à la place des céréales extrudées, riches en fibres, et des graisses dans les collations. Actuellement les maltodextrines sont utilisées commercialement pour remplacer les graisses dans les sauces à salade, les trempettes, les margarines et les desserts congelés. Comme substitut de graisse, les maltodextrines ne fournissent que 4 cal/g,  contre 9 cal/g pour les matières grasses.[réf. nécessaire]
 Les maltodextrines sont largement utilisées dans l’industrie comme support (arôme…), excipient (médicament) ou agent de charge. Elles ont un pouvoir sucrant très faible. Elles peuvent avoir une fonctionnalité (amélioration de la solubilité, de la texture). Les procédés modernes permettent d’en faire des agents encapsulants et/ou gonflants (exemple des édulcorants de table, où l’aspartame est englobé dans des grains de maltodextrine peu denses).[réf. souhaitée]
